--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084460.104843259</v>
+        <v>2149340.062089133</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7038250.586463831</v>
+        <v>5851605.615330301</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1983778.929315518</v>
+        <v>864456.6793124477</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7259141.104124353</v>
+        <v>7621546.405938718</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +667,13 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>255.82680198635</v>
+        <v>340.9731559768329</v>
       </c>
       <c r="F2" t="n">
-        <v>390.1527797502169</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>390.1527797502169</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70.74121556638629</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
@@ -792,7 +794,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -804,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>37.57836269100275</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -829,13 +831,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>98.9457413571089</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>77.1701310156833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>168.4116133861249</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>96.82870659917981</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.748445174862</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
         <v>195.3773027531635</v>
@@ -1035,7 +1037,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>211.1008365810346</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>56.69077782561564</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>169.8256452543826</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>104.2794811897301</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>392.8815092081684</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1354,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>227.0672929610288</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1385,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
-        <v>148.1240297976761</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.4237561298454</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02823849243873269</v>
+        <v>31.72622624840622</v>
       </c>
       <c r="E13" t="n">
         <v>129.8027652540257</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
         <v>207.6543099067269</v>
@@ -1585,7 +1587,7 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>246.7800261198763</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1622,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>316.8402373905467</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.4036755960892</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>111.8877254530157</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041766</v>
@@ -1780,10 +1782,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>174.7241074356322</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995121</v>
       </c>
       <c r="G17" t="n">
         <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950539</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6.102477792226643</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>136.078945437374</v>
@@ -2020,7 +2022,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>207.6543099067269</v>
@@ -2059,7 +2061,7 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
         <v>246.7800261198763</v>
@@ -2068,7 +2070,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>112.1266969352238</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
         <v>387.3211661995113</v>
@@ -2096,10 +2098,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2245,19 +2247,19 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>11.61786898501389</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>44.72798741164868</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415078</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2333,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967475</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2381,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2479,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>40.15412884460862</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>103.7622202500686</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037907</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2539,10 +2541,10 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>49.12308702887178</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>103.1885574966858</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.5952110672386</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>376.6200261415066</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535253</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
@@ -2810,7 +2812,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
         <v>129.8027652540257</v>
@@ -2962,7 +2964,7 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>82.84272411323371</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>169.6246969942281</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
         <v>246.7800261198764</v>
@@ -3047,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>224.990945096747</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905467</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W32" t="n">
         <v>350.4237561298451</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S34" t="n">
         <v>155.0289087125508</v>
@@ -3244,16 +3246,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
-        <v>174.7009913793887</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>73.28679514555843</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975959</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T35" t="n">
         <v>190.4854774862718</v>
@@ -3424,25 +3426,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>113.7915449370782</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U37" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>198.7442264541998</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T38" t="n">
         <v>190.4854774862718</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S40" t="n">
-        <v>103.1885574966856</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
@@ -3727,7 +3729,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>135.4220684389907</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.4755399905135</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>376.5244030535246</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>370.920348881532</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>380.6978716019343</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>387.3211661995113</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>375.1420595397581</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>104.4293227275021</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>224.990945096747</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>367.138022126399</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>367.4283645950528</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>62.74166210856986</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>207.6543099067269</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>246.7800261198764</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>206.4614817925755</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.9893998987849</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3982,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>289.4145256332027</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>50.9050998467422</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>151.0380268246975</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1170.670042511951</v>
+        <v>1301.201887339098</v>
       </c>
       <c r="C2" t="n">
-        <v>1164.585855865625</v>
+        <v>1295.117700692773</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.162329999089</v>
+        <v>1294.694174826237</v>
       </c>
       <c r="E2" t="n">
-        <v>905.7514189017662</v>
+        <v>950.2768455567091</v>
       </c>
       <c r="F2" t="n">
-        <v>511.6577019823552</v>
+        <v>529.2464335103966</v>
       </c>
       <c r="G2" t="n">
-        <v>117.5639850629442</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="H2" t="n">
-        <v>117.5639850629442</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="I2" t="n">
-        <v>31.21222238001735</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>31.21222238001735</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="L2" t="n">
-        <v>417.4634743327321</v>
+        <v>711.1608938517919</v>
       </c>
       <c r="M2" t="n">
-        <v>803.7147262854468</v>
+        <v>822.1446189980575</v>
       </c>
       <c r="N2" t="n">
-        <v>812.642214563296</v>
+        <v>1244.953654661793</v>
       </c>
       <c r="O2" t="n">
-        <v>1198.893466516011</v>
+        <v>1244.953654661793</v>
       </c>
       <c r="P2" t="n">
-        <v>1198.893466516011</v>
+        <v>1667.762690325529</v>
       </c>
       <c r="Q2" t="n">
-        <v>1520.054473311303</v>
+        <v>1667.762690325529</v>
       </c>
       <c r="R2" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S2" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="T2" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="U2" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="V2" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="W2" t="n">
-        <v>1176.850818136036</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="X2" t="n">
-        <v>1176.850818136036</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="Y2" t="n">
-        <v>1176.850818136036</v>
+        <v>1307.382662963184</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.60660853427</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="C3" t="n">
-        <v>530.60660853427</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="D3" t="n">
-        <v>459.1508352348899</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6580192272179</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="F3" t="n">
-        <v>229.6981394097224</v>
+        <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
-        <v>122.7080267240611</v>
+        <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96081375977718</v>
+        <v>54.9149781000617</v>
       </c>
       <c r="I3" t="n">
-        <v>31.21222238001735</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J3" t="n">
-        <v>31.21222238001735</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>417.4634743327321</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="L3" t="n">
-        <v>803.7147262854468</v>
+        <v>512.8568000036389</v>
       </c>
       <c r="M3" t="n">
-        <v>824.5154023641696</v>
+        <v>935.6658356673747</v>
       </c>
       <c r="N3" t="n">
-        <v>824.5154023641696</v>
+        <v>935.6658356673747</v>
       </c>
       <c r="O3" t="n">
-        <v>824.5154023641696</v>
+        <v>1358.474871331111</v>
       </c>
       <c r="P3" t="n">
-        <v>1210.766654316884</v>
+        <v>1358.474871331111</v>
       </c>
       <c r="Q3" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="R3" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S3" t="n">
-        <v>1452.621109115176</v>
+        <v>1600.329326129403</v>
       </c>
       <c r="T3" t="n">
-        <v>1293.279245302185</v>
+        <v>1440.987462316411</v>
       </c>
       <c r="U3" t="n">
-        <v>1293.279245302185</v>
+        <v>1243.63665145463</v>
       </c>
       <c r="V3" t="n">
-        <v>1079.567718295218</v>
+        <v>1029.925124447663</v>
       </c>
       <c r="W3" t="n">
-        <v>866.3345500315471</v>
+        <v>816.6919561839921</v>
       </c>
       <c r="X3" t="n">
-        <v>690.00856817044</v>
+        <v>640.365974322885</v>
       </c>
       <c r="Y3" t="n">
-        <v>530.60660853427</v>
+        <v>602.408032210761</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>687.3421805164801</v>
+        <v>952.4068645831551</v>
       </c>
       <c r="C4" t="n">
-        <v>516.2488080781966</v>
+        <v>952.4068645831551</v>
       </c>
       <c r="D4" t="n">
-        <v>356.7541634011066</v>
+        <v>792.912219906065</v>
       </c>
       <c r="E4" t="n">
-        <v>195.8433482694261</v>
+        <v>632.0014047743845</v>
       </c>
       <c r="F4" t="n">
-        <v>31.21222238001735</v>
+        <v>467.3702788849757</v>
       </c>
       <c r="G4" t="n">
-        <v>31.21222238001735</v>
+        <v>300.1198878105191</v>
       </c>
       <c r="H4" t="n">
-        <v>31.21222238001735</v>
+        <v>150.5124326159757</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001735</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522802</v>
+        <v>48.2489361255124</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074661</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875267</v>
+        <v>462.6983641278109</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280199</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
-        <v>1029.84703862227</v>
+        <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1289.407648948744</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
-        <v>1495.083089198357</v>
+        <v>1498.037253538641</v>
       </c>
       <c r="Q4" t="n">
-        <v>1560.611119000868</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1475.338400676267</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1475.338400676267</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="T4" t="n">
-        <v>1235.789661652969</v>
+        <v>1052.352057873164</v>
       </c>
       <c r="U4" t="n">
-        <v>952.9915141990934</v>
+        <v>952.4068645831551</v>
       </c>
       <c r="V4" t="n">
-        <v>952.9915141990934</v>
+        <v>952.4068645831551</v>
       </c>
       <c r="W4" t="n">
-        <v>952.9915141990934</v>
+        <v>952.4068645831551</v>
       </c>
       <c r="X4" t="n">
-        <v>952.9915141990934</v>
+        <v>952.4068645831551</v>
       </c>
       <c r="Y4" t="n">
-        <v>875.0418869105245</v>
+        <v>952.4068645831551</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1946.792430650117</v>
+        <v>1476.106720938044</v>
       </c>
       <c r="C5" t="n">
-        <v>1776.679689856052</v>
+        <v>1470.022534291718</v>
       </c>
       <c r="D5" t="n">
         <v>1372.215759949112</v>
@@ -4580,37 +4582,37 @@
         <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.973206274203</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.973206274203</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.973206274203</v>
+        <v>1482.28749656213</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L6" t="n">
-        <v>1192.007362767164</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767164</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4680,7 +4682,7 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
         <v>1196.626901649</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.1111315252759</v>
+        <v>518.1175765756921</v>
       </c>
       <c r="C7" t="n">
-        <v>158.1111315252759</v>
+        <v>518.1175765756921</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1145.223475107064</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U7" t="n">
-        <v>1145.223475107064</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V7" t="n">
-        <v>1087.960063161998</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W7" t="n">
-        <v>808.8903986708722</v>
+        <v>518.1175765756921</v>
       </c>
       <c r="X7" t="n">
-        <v>570.5465365305556</v>
+        <v>518.1175765756921</v>
       </c>
       <c r="Y7" t="n">
-        <v>345.8108379193203</v>
+        <v>518.1175765756921</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1280.493434973059</v>
+        <v>1698.313204991185</v>
       </c>
       <c r="C8" t="n">
-        <v>870.3688442863294</v>
+        <v>1692.229018344859</v>
       </c>
       <c r="D8" t="n">
-        <v>869.9453184197939</v>
+        <v>1287.76508843792</v>
       </c>
       <c r="E8" t="n">
-        <v>859.6455069770947</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>438.6150949307822</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4808,16 +4810,16 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1767.09327468481</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1767.09327468481</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
         <v>1767.09327468481</v>
@@ -4841,13 +4843,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.610883649055</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.674210597145</v>
+        <v>1704.493980615271</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N9" t="n">
-        <v>704.7239474634683</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129794</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.817095773278</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>774.9313507128002</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>495.8616862216745</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>266.5007842408373</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2311.625511944883</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1931.297832092838</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1556.630813020583</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1172.087508372165</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>780.8540071605375</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G11" t="n">
-        <v>401.9226338880546</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H11" t="n">
-        <v>120.8110473504575</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I11" t="n">
-        <v>64.25619550221555</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>318.4416669699698</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>318.4416669699698</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
-        <v>1031.033066782208</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1807.351657773962</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2560.53267441258</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3204.163530829685</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3204.163530829685</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3212.809775110777</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3212.809775110777</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3212.809775110777</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>3212.809775110777</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>3212.809775110777</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>3063.189542991912</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3063.189542991912</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
-        <v>3063.189542991912</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y11" t="n">
-        <v>2692.049780774687</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>743.0870373887499</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>609.0919661376956</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>492.194808357088</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>371.7019923494161</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>262.7421125319206</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>155.7519998462593</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>85.00478688197538</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>64.25619550221555</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>257.0690530648488</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>712.8753093301475</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>712.8753093301475</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M12" t="n">
-        <v>712.8753093301475</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N12" t="n">
-        <v>712.8753093301475</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O12" t="n">
-        <v>1169.635514817572</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>1731.341407306102</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2081.185871990086</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2110.745391352716</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2002.755381467025</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1843.413517654033</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1646.062706792251</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1432.351179785285</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1219.118011521614</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1042.792029660507</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>883.3900700243365</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>467.6863188234429</v>
+        <v>528.6919904623223</v>
       </c>
       <c r="C13" t="n">
-        <v>467.6863188234429</v>
+        <v>528.6919904623223</v>
       </c>
       <c r="D13" t="n">
-        <v>467.6577950937068</v>
+        <v>496.645297282114</v>
       </c>
       <c r="E13" t="n">
-        <v>336.5438907967111</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="F13" t="n">
-        <v>201.7096757419873</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G13" t="n">
-        <v>64.25619550221555</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>64.25619550221555</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>64.25619550221555</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>107.5426972165007</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>291.2989772478134</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
-        <v>580.4000298369485</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>898.8680385865165</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
-        <v>1208.910773289841</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1497.67533592539</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
-        <v>1732.554728484077</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q13" t="n">
-        <v>1827.286710595663</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1827.286710595663</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1827.286710595663</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T13" t="n">
-        <v>1617.53488240705</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U13" t="n">
-        <v>1364.533645787859</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V13" t="n">
-        <v>1120.444811562066</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="W13" t="n">
-        <v>871.172057905625</v>
+        <v>932.1777295445045</v>
       </c>
       <c r="X13" t="n">
-        <v>662.6251065999933</v>
+        <v>723.6307782388727</v>
       </c>
       <c r="Y13" t="n">
-        <v>467.6863188234429</v>
+        <v>528.6919904623223</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2255.070660096641</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1874.742980244596</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1500.075961172342</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1115.532656523923</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>724.2991553122956</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>345.3677820398127</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
-        <v>64.25619550221555</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
-        <v>64.25619550221555</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>318.4416669699698</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>856.6011680790093</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1569.192567891247</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2345.511158883001</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2345.511158883001</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2851.09212262592</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2851.09212262592</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3172.253129421212</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3212.809775110777</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3212.809775110777</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>3212.809775110777</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>3212.809775110777</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
-        <v>3212.809775110777</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3212.809775110777</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>2841.963288114414</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2635.494928926445</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>743.0870373887499</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>609.0919661376956</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>492.194808357088</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>371.7019923494161</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>262.7421125319206</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>155.7519998462593</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>85.00478688197538</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>64.25619550221555</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>257.0690530648488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>712.8753093301475</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>1027.384316760208</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M15" t="n">
-        <v>1027.384316760208</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N15" t="n">
-        <v>1027.384316760208</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O15" t="n">
-        <v>1731.341407306102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P15" t="n">
-        <v>1731.341407306102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2081.185871990086</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2110.745391352716</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2002.755381467025</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1843.413517654033</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1646.062706792251</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1432.351179785285</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1219.118011521614</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1042.792029660507</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>883.3900700243365</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.9156701615581</v>
+        <v>626.3430311245191</v>
       </c>
       <c r="C16" t="n">
-        <v>785.6192085579594</v>
+        <v>626.3430311245191</v>
       </c>
       <c r="D16" t="n">
-        <v>655.9214747155543</v>
+        <v>496.645297282114</v>
       </c>
       <c r="E16" t="n">
-        <v>542.9035702175586</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="F16" t="n">
-        <v>408.0693551628347</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G16" t="n">
-        <v>270.615874923063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>150.8053305632045</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>64.25619550221555</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>107.5426972165007</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>291.2989772478134</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L16" t="n">
-        <v>580.4000298369485</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>898.8680385865165</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
-        <v>1208.910773289841</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1497.67533592539</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
-        <v>1732.554728484077</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q16" t="n">
-        <v>1827.286710595663</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1771.810903105747</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1615.216045820342</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1615.216045820342</v>
+        <v>1523.190358088935</v>
       </c>
       <c r="U16" t="n">
-        <v>1615.216045820342</v>
+        <v>1523.190358088935</v>
       </c>
       <c r="V16" t="n">
-        <v>1371.127211594549</v>
+        <v>1279.101523863142</v>
       </c>
       <c r="W16" t="n">
-        <v>1121.854457938108</v>
+        <v>1029.828770206701</v>
       </c>
       <c r="X16" t="n">
-        <v>1121.854457938108</v>
+        <v>821.2818189010695</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.9156701615581</v>
+        <v>626.3430311245191</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5558,7 +5560,7 @@
         <v>3092.177045180321</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>286.056555253256</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>324.9649248943615</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N18" t="n">
-        <v>1198.623017005979</v>
+        <v>2083.796217986828</v>
       </c>
       <c r="O18" t="n">
-        <v>1198.623017005979</v>
+        <v>2083.796217986828</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>621.2037901694291</v>
+        <v>578.3533189548407</v>
       </c>
       <c r="C19" t="n">
-        <v>621.2037901694291</v>
+        <v>437.056857351242</v>
       </c>
       <c r="D19" t="n">
-        <v>491.506056327024</v>
+        <v>437.056857351242</v>
       </c>
       <c r="E19" t="n">
-        <v>485.3419373449769</v>
+        <v>437.056857351242</v>
       </c>
       <c r="F19" t="n">
-        <v>350.507722290253</v>
+        <v>437.056857351242</v>
       </c>
       <c r="G19" t="n">
-        <v>213.0542420504813</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
         <v>320.2864794362206</v>
@@ -5680,13 +5682,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5698,25 +5700,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T19" t="n">
-        <v>1489.927527310052</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U19" t="n">
-        <v>1236.926290690861</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V19" t="n">
-        <v>1236.926290690861</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W19" t="n">
-        <v>987.6535370344204</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X19" t="n">
-        <v>779.1065857287887</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y19" t="n">
-        <v>779.1065857287887</v>
+        <v>578.3533189548407</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489449</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5786,7 +5788,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
         <v>3463.023532176683</v>
@@ -5829,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1615.520903630173</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3181.88378608068</v>
+        <v>797.7956072975439</v>
       </c>
       <c r="C22" t="n">
-        <v>3040.587324477081</v>
+        <v>656.4991456939454</v>
       </c>
       <c r="D22" t="n">
-        <v>2910.889590634676</v>
+        <v>526.8014118515403</v>
       </c>
       <c r="E22" t="n">
-        <v>2899.154369437692</v>
+        <v>395.6875075545446</v>
       </c>
       <c r="F22" t="n">
-        <v>2899.154369437692</v>
+        <v>395.6875075545446</v>
       </c>
       <c r="G22" t="n">
-        <v>2899.154369437692</v>
+        <v>258.2340273147729</v>
       </c>
       <c r="H22" t="n">
-        <v>2899.154369437692</v>
+        <v>138.4234829549144</v>
       </c>
       <c r="I22" t="n">
-        <v>2899.154369437692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>3126.19715118329</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
-        <v>3415.298203772425</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>4450.114219755819</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T22" t="n">
-        <v>4240.362391567206</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U22" t="n">
-        <v>3987.361154948015</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V22" t="n">
-        <v>3743.272320722222</v>
+        <v>1359.184141939086</v>
       </c>
       <c r="W22" t="n">
-        <v>3743.272320722222</v>
+        <v>1359.184141939086</v>
       </c>
       <c r="X22" t="n">
-        <v>3534.72536941659</v>
+        <v>1150.637190633454</v>
       </c>
       <c r="Y22" t="n">
-        <v>3339.78658164004</v>
+        <v>955.6984028569035</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -6020,19 +6022,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>284.6031562365296</v>
+        <v>743.5647028086267</v>
       </c>
       <c r="C25" t="n">
-        <v>284.6031562365296</v>
+        <v>743.5647028086267</v>
       </c>
       <c r="D25" t="n">
-        <v>284.6031562365296</v>
+        <v>703.0049767029615</v>
       </c>
       <c r="E25" t="n">
-        <v>284.6031562365296</v>
+        <v>571.8910724059658</v>
       </c>
       <c r="F25" t="n">
-        <v>284.6031562365296</v>
+        <v>437.056857351242</v>
       </c>
       <c r="G25" t="n">
-        <v>284.6031562365296</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H25" t="n">
         <v>179.7928327516118</v>
@@ -6145,7 +6147,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
         <v>320.2864794362206</v>
@@ -6154,13 +6156,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6169,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V25" t="n">
-        <v>937.3616489751524</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187117</v>
+        <v>743.5647028086267</v>
       </c>
       <c r="X25" t="n">
-        <v>479.54194401308</v>
+        <v>743.5647028086267</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6031562365296</v>
+        <v>743.5647028086267</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2512.458907120301</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>2102.334316433571</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
-        <v>1697.870386526632</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1283.530171043528</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>862.4997589972158</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>453.771474890048</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H26" t="n">
-        <v>142.862977517766</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="F28" t="n">
         <v>93.2436976906228</v>
@@ -6382,52 +6384,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.295707834299</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V28" t="n">
-        <v>826.4099627738212</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W28" t="n">
-        <v>547.3402982826956</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X28" t="n">
-        <v>308.996436142379</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6451,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6461,10 +6463,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6476,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6500,10 +6502,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
         <v>2721.037282963096</v>
@@ -6546,13 +6548,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.1677979522377</v>
+        <v>630.1860124883461</v>
       </c>
       <c r="C31" t="n">
-        <v>442.871336348639</v>
+        <v>488.8895508847475</v>
       </c>
       <c r="D31" t="n">
-        <v>442.871336348639</v>
+        <v>359.1918170423423</v>
       </c>
       <c r="E31" t="n">
-        <v>311.7574320516434</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F31" t="n">
-        <v>176.9232169969195</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6646,25 +6648,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>1489.927527310052</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U31" t="n">
-        <v>1236.926290690861</v>
+        <v>1684.936135012122</v>
       </c>
       <c r="V31" t="n">
-        <v>1236.926290690861</v>
+        <v>1440.847300786329</v>
       </c>
       <c r="W31" t="n">
-        <v>987.65353703442</v>
+        <v>1191.574547129888</v>
       </c>
       <c r="X31" t="n">
-        <v>779.1065857287882</v>
+        <v>983.0275958242562</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.1677979522377</v>
+        <v>788.0888080477057</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6679,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G32" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6698,10 +6700,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6713,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6728,10 +6730,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
         <v>3816.98692220683</v>
@@ -6783,13 +6785,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>499.0721081913505</v>
+        <v>705.431787612198</v>
       </c>
       <c r="C34" t="n">
-        <v>357.7756465877518</v>
+        <v>564.1353260085993</v>
       </c>
       <c r="D34" t="n">
-        <v>228.0779127453467</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="E34" t="n">
-        <v>228.0779127453467</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T34" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U34" t="n">
-        <v>1236.926290690861</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V34" t="n">
-        <v>1060.460642832892</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W34" t="n">
-        <v>1060.460642832892</v>
+        <v>937.361648975152</v>
       </c>
       <c r="X34" t="n">
-        <v>851.9136915272605</v>
+        <v>937.361648975152</v>
       </c>
       <c r="Y34" t="n">
-        <v>656.97490375071</v>
+        <v>863.3345831715576</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C35" t="n">
         <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E35" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G35" t="n">
         <v>430.9101360764616</v>
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6950,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6965,22 +6967,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U35" t="n">
         <v>4137.027566035664</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X35" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>230.6971779303946</v>
+        <v>565.7279826795128</v>
       </c>
       <c r="C37" t="n">
-        <v>230.6971779303946</v>
+        <v>424.4315210759141</v>
       </c>
       <c r="D37" t="n">
-        <v>230.6971779303946</v>
+        <v>294.733787233509</v>
       </c>
       <c r="E37" t="n">
-        <v>230.6971779303946</v>
+        <v>294.733787233509</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303946</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7099,7 +7101,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M37" t="n">
         <v>927.8555407749236</v>
@@ -7117,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T37" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U37" t="n">
-        <v>1236.926290690861</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V37" t="n">
-        <v>992.8374564650675</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="W37" t="n">
-        <v>792.0857125719364</v>
+        <v>932.1777295445041</v>
       </c>
       <c r="X37" t="n">
-        <v>583.5387612663046</v>
+        <v>723.6307782388724</v>
       </c>
       <c r="Y37" t="n">
-        <v>388.5999734897541</v>
+        <v>723.6307782388724</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I38" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
@@ -7190,34 +7192,34 @@
         <v>3771.310534127132</v>
       </c>
       <c r="P38" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7242,19 +7244,19 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346665</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
         <v>874.0699105066985</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>234.5401592942214</v>
+        <v>342.7519758928865</v>
       </c>
       <c r="C40" t="n">
-        <v>93.24369769062278</v>
+        <v>342.7519758928865</v>
       </c>
       <c r="D40" t="n">
-        <v>93.24369769062278</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="E40" t="n">
-        <v>93.24369769062278</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="F40" t="n">
-        <v>93.24369769062278</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G40" t="n">
-        <v>93.24369769062278</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H40" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
         <v>136.5301994049079</v>
@@ -7336,7 +7338,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M40" t="n">
         <v>927.8555407749236</v>
@@ -7354,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S40" t="n">
-        <v>1752.043346625801</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.291518437188</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U40" t="n">
-        <v>1289.290281817997</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V40" t="n">
-        <v>1045.201447592204</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W40" t="n">
-        <v>795.9286939357632</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X40" t="n">
-        <v>587.3817426301315</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y40" t="n">
-        <v>392.442954853581</v>
+        <v>342.7519758928865</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1973.959073559044</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C41" t="n">
-        <v>1593.631393706999</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D41" t="n">
-        <v>1218.964374634745</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E41" t="n">
-        <v>834.4210699863261</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F41" t="n">
-        <v>443.1875687746985</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>64.25619550221552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
-        <v>64.25619550221552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>64.25619550221552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>64.25619550221552</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>64.25619550221552</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>776.8475953144535</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1553.166186306207</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2306.347202944825</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2949.97805936193</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3212.809775110776</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3212.809775110776</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3212.809775110776</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3107.325610739562</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T41" t="n">
-        <v>3107.325610739562</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U41" t="n">
-        <v>2880.062029833757</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V41" t="n">
-        <v>2880.062029833757</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W41" t="n">
-        <v>2880.062029833757</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X41" t="n">
-        <v>2509.215542837394</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y41" t="n">
-        <v>2138.075780620169</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>743.0870373887499</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>609.0919661376956</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>492.194808357088</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>371.7019923494161</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>262.7421125319206</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>155.7519998462593</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>85.00478688197535</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>64.25619550221552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>64.25619550221552</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>64.25619550221552</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>64.25619550221552</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>859.4266148421326</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.788300806821</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O42" t="n">
-        <v>2110.745391352716</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.745391352716</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.745391352716</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>2110.745391352716</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2002.755381467025</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1843.413517654033</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1646.062706792251</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1432.351179785285</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1219.118011521614</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1042.792029660507</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>883.3900700243365</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>594.8029293337465</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>531.4275130624638</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>401.7297792200587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>270.615874923063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>270.615874923063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>270.615874923063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>150.8053305632045</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>64.25619550221552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>107.5426972165007</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>291.2989772478132</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>580.4000298369484</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>898.8680385865164</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1208.910773289841</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1497.67533592539</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1732.554728484077</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1827.286710595662</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1771.810903105747</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1615.216045820342</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1405.464217631729</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1405.464217631729</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1405.464217631729</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>1156.191463975288</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>947.6445126696566</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
-        <v>752.7057248931061</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1267.410669034978</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>857.2860783482485</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>857.2860783482485</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>442.9458628651452</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>150.6079581851424</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>150.6079581851424</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>150.6079581851424</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>64.25619550221552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>64.25619550221552</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>286.5312655614963</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>999.1226653737343</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1775.441256365488</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2528.622273004106</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3172.253129421211</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3172.253129421211</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3172.253129421211</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3212.809775110776</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3212.809775110776</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3212.809775110776</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>3212.809775110776</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>2862.972220447257</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>2479.211919582425</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2078.568521751378</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>1677.631848699468</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>743.0870373887499</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>609.0919661376956</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>492.194808357088</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>371.7019923494161</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>262.7421125319206</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>155.7519998462593</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>85.00478688197535</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>64.25619550221552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>64.25619550221552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>64.25619550221552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>725.3443674215038</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.514786761421</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.341407306102</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O45" t="n">
-        <v>1731.341407306102</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P45" t="n">
-        <v>1731.341407306102</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2081.185871990086</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2110.745391352716</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2002.755381467025</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1843.413517654033</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1646.062706792251</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1432.351179785285</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1219.118011521614</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1042.792029660507</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>883.3900700243365</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.6323571431708</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C46" t="n">
-        <v>555.6323571431708</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D46" t="n">
-        <v>396.1377124660809</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E46" t="n">
-        <v>396.1377124660809</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F46" t="n">
-        <v>231.5065865766721</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G46" t="n">
-        <v>64.25619550221552</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H46" t="n">
-        <v>64.25619550221552</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>64.25619550221552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33874490742605</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>232.891072629664</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>492.7881729097246</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>782.0522293502179</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1062.891011744468</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1322.451622070942</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.127062320555</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1593.655092123066</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1593.655092123066</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1407.263324002976</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1355.844031228489</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U46" t="n">
-        <v>1073.045883774613</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V46" t="n">
-        <v>1073.045883774613</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W46" t="n">
-        <v>793.9762192834874</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X46" t="n">
-        <v>555.6323571431708</v>
+        <v>362.153407045587</v>
       </c>
       <c r="Y46" t="n">
-        <v>555.6323571431708</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>485.6381778130617</v>
+        <v>522.5652320666184</v>
       </c>
       <c r="M2" t="n">
-        <v>483.4430042072623</v>
+        <v>205.3949973320612</v>
       </c>
       <c r="N2" t="n">
-        <v>101.9299556837397</v>
+        <v>519.9921247603928</v>
       </c>
       <c r="O2" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>520.7291972846576</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>446.2673035610659</v>
+        <v>344.8797316095397</v>
       </c>
       <c r="M3" t="n">
-        <v>78.57506765631931</v>
+        <v>484.6441177421909</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>484.8313130037735</v>
       </c>
       <c r="P3" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8228,16 +8230,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>535.0653799235644</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8297,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>332.1773130131622</v>
       </c>
       <c r="L6" t="n">
-        <v>562.8045877599699</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8307,13 +8309,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8456,19 +8458,19 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>535.1658287548266</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>67.6779873391382</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>68.45311154908681</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8705,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.76738448106326</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8771,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -8778,10 +8780,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>519.1254239367926</v>
+        <v>97.05286247586417</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8936,19 +8938,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>603.8776177903476</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>373.8003899018191</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>752.1609013342966</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,16 +9242,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>96.86566721428154</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
@@ -9258,13 +9260,13 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>110.7613274818897</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9419,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9477,13 +9479,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
@@ -9492,16 +9494,16 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>204.0221919942796</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -10194,16 +10196,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>741.5205988334646</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10367,7 +10369,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10431,16 +10433,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10589,7 +10591,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
         <v>877.4504173780091</v>
@@ -10665,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>544.6182357151487</v>
       </c>
       <c r="N36" t="n">
-        <v>424.7983178153489</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,7 +10840,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507324</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10899,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>650.0674079052355</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11075,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>359.135944845375</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>860.7667275161115</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>606.0839852772739</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>204.0221919942796</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>313.6566624603694</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11312,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,13 +11381,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>860.7667275161115</v>
+        <v>888.8639191474061</v>
       </c>
       <c r="N45" t="n">
-        <v>266.1495757621148</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -11397,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>168.7162075928699</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
-        <v>128.3725180115423</v>
+        <v>96.67453025557484</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037907</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975954</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862717</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>163.0246889989636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,13 +23655,13 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.91503980100998</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>32.93020247109465</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>123.7002874617991</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>80.86270296356115</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>118.1848962690118</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041766</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037907</v>
+        <v>40.95565629873042</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>88.24662765937244</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>14.85021866619125</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>36.36515802722579</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>30.29731540749081</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.2362213241403</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>80.84652725877098</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>66.94695450414656</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>119.7026047532265</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>19.69432796709853</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
-        <v>48.03579966567659</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F40" t="n">
         <v>133.4858729041767</v>
@@ -25564,10 +25566,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>51.84035121586521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.5673314597943</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>214.1444861509931</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>278.3004706722212</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>55.98930332975957</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T41" t="n">
-        <v>190.4854774862718</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>316.8402373905461</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.4237561298451</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>77.14183487899281</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>133.4858729041767</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>136.078945437374</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>127.4055822926466</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>186.2481517863227</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>71.45031480042547</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>634598.8279297978</v>
+        <v>638166.5035714586</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>549509.3223909312</v>
+        <v>670290.9997784551</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>549509.3223909313</v>
+        <v>670290.9997784551</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670290.9997784554</v>
+        <v>670290.9997784551</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>624703.1346417686</v>
+        <v>670290.9997784551</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670290.9997784552</v>
+        <v>670290.9997784551</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>549509.3223909312</v>
+        <v>624703.1346417686</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>503921.4572542444</v>
+        <v>624703.1346417686</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>570088.3756135995</v>
+      </c>
+      <c r="C2" t="n">
         <v>570088.3756135992</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>570088.3756135994</v>
       </c>
-      <c r="D2" t="n">
-        <v>570088.3756135995</v>
-      </c>
       <c r="E2" t="n">
-        <v>454532.3364478315</v>
+        <v>552473.0333231015</v>
       </c>
       <c r="F2" t="n">
-        <v>454532.3364478315</v>
+        <v>552473.0333231009</v>
       </c>
       <c r="G2" t="n">
-        <v>552473.0333231016</v>
+        <v>552473.0333231012</v>
       </c>
       <c r="H2" t="n">
-        <v>552473.0333231016</v>
+        <v>552473.0333231015</v>
       </c>
       <c r="I2" t="n">
-        <v>552473.0333231016</v>
+        <v>552473.0333231015</v>
       </c>
       <c r="J2" t="n">
-        <v>506885.1681864141</v>
+        <v>552473.0333231014</v>
       </c>
       <c r="K2" t="n">
-        <v>552473.0333231015</v>
+        <v>552473.0333231009</v>
       </c>
       <c r="L2" t="n">
         <v>552473.0333231015</v>
       </c>
       <c r="M2" t="n">
+        <v>552473.0333231016</v>
+      </c>
+      <c r="N2" t="n">
         <v>552473.0333231014</v>
       </c>
-      <c r="N2" t="n">
-        <v>552473.0333231012</v>
-      </c>
       <c r="O2" t="n">
-        <v>454532.3364478312</v>
+        <v>506885.1681864142</v>
       </c>
       <c r="P2" t="n">
-        <v>408944.4713111454</v>
+        <v>506885.1681864144</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130749.1700082319</v>
+        <v>143124.2752108466</v>
       </c>
       <c r="C3" t="n">
-        <v>42616.50961634395</v>
+        <v>30686.4608666882</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>107541.0359253853</v>
+        <v>215728.9162805136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99312.99421637003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102081.1339049658</v>
+        <v>135342.0294691537</v>
       </c>
       <c r="K3" t="n">
-        <v>57548.76974130933</v>
+        <v>24445.77426110956</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>70060.93180868466</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255180.0220455301</v>
+        <v>248795.5093150309</v>
       </c>
       <c r="C4" t="n">
-        <v>232373.2713033891</v>
+        <v>232373.271303389</v>
       </c>
       <c r="D4" t="n">
         <v>232373.271303389</v>
       </c>
       <c r="E4" t="n">
-        <v>125353.835936271</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="F4" t="n">
-        <v>125353.8359362711</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="G4" t="n">
         <v>148366.1238023682</v>
@@ -26439,7 +26441,7 @@
         <v>148366.1238023682</v>
       </c>
       <c r="J4" t="n">
-        <v>118556.0943854993</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="K4" t="n">
         <v>148366.1238023682</v>
@@ -26454,10 +26456,10 @@
         <v>148366.1238023682</v>
       </c>
       <c r="O4" t="n">
-        <v>125353.835936271</v>
+        <v>118556.0943854993</v>
       </c>
       <c r="P4" t="n">
-        <v>95543.80651940209</v>
+        <v>118556.0943854993</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57348.88900881319</v>
+        <v>59594.05390742942</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26476,22 +26478,22 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>51314.65511367532</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>51314.65511367532</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>70865.21024487332</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
         <v>73345.15677686482</v>
@@ -26503,13 +26505,13 @@
         <v>73345.15677686482</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686481</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="O5" t="n">
-        <v>51314.6551136753</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>48834.70858168379</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126810.294551024</v>
+        <v>118574.5371802927</v>
       </c>
       <c r="C6" t="n">
-        <v>229729.5296153688</v>
+        <v>241659.5783650245</v>
       </c>
       <c r="D6" t="n">
-        <v>272346.0392317129</v>
+        <v>272346.0392317128</v>
       </c>
       <c r="E6" t="n">
-        <v>170322.8094724998</v>
+        <v>115032.8364633548</v>
       </c>
       <c r="F6" t="n">
-        <v>277863.8453978851</v>
+        <v>330761.7527438678</v>
       </c>
       <c r="G6" t="n">
-        <v>231448.7585274985</v>
+        <v>330761.7527438682</v>
       </c>
       <c r="H6" t="n">
-        <v>330761.7527438685</v>
+        <v>330761.7527438684</v>
       </c>
       <c r="I6" t="n">
-        <v>330761.7527438686</v>
+        <v>330761.7527438684</v>
       </c>
       <c r="J6" t="n">
-        <v>215382.7296510757</v>
+        <v>195419.7232747147</v>
       </c>
       <c r="K6" t="n">
-        <v>273212.983002559</v>
+        <v>306315.9784827583</v>
       </c>
       <c r="L6" t="n">
         <v>330761.7527438684</v>
       </c>
       <c r="M6" t="n">
-        <v>260700.8209351836</v>
+        <v>170403.3022431859</v>
       </c>
       <c r="N6" t="n">
         <v>330761.7527438683</v>
       </c>
       <c r="O6" t="n">
-        <v>277863.845397885</v>
+        <v>317463.8635560416</v>
       </c>
       <c r="P6" t="n">
-        <v>264565.9562100595</v>
+        <v>317463.8635560418</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26796,10 +26798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>803.2024437776943</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>803.2024437776943</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>803.202443777694</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>803.202443777694</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="C4" t="n">
-        <v>131.9107906198087</v>
+        <v>94.98373636625206</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>281.1388734076687</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>362.3437773550907</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="K4" t="n">
-        <v>131.9107906198087</v>
+        <v>94.98373636625206</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.1388734076687</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="K4" t="n">
-        <v>131.9107906198087</v>
+        <v>94.98373636625206</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.1388734076687</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>362.3437773550907</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,13 +27387,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>154.3700113419222</v>
+        <v>69.22365735143939</v>
       </c>
       <c r="F2" t="n">
-        <v>26.66732817563241</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48822151587922</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27439,13 +27441,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98697063641519</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27512,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27524,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>120.2295773488055</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>181.0244246222282</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -27603,7 +27605,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>145.3182106094396</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>237.6117313937377</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>303.5905840086903</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27676,7 +27678,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27786,13 +27788,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>214.4561097842576</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>106.4533225918317</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>305.9173321385421</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>11.75949205792773</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27913,13 +27915,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>8.89313055788466</v>
+        <v>170.535215949722</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633674</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633745</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633742</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="M2" t="n">
-        <v>390.1527797502169</v>
+        <v>112.1047728750157</v>
       </c>
       <c r="N2" t="n">
-        <v>9.017664927120396</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="O2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>390.1527797502169</v>
+        <v>288.7652077986907</v>
       </c>
       <c r="M3" t="n">
-        <v>21.01078391790188</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="P3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34948,16 +34950,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>276.3515302285468</v>
       </c>
       <c r="L6" t="n">
-        <v>506.6900639491208</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35176,19 +35178,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M8" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>14.48459394538821</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>10.70163254908682</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35425,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.733580081911207</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3739449367926</v>
+        <v>39.30138347586418</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35574,19 +35576,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,19 +35658,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>510.6878421645645</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>317.6858660909701</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>694.4094223342966</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35811,19 +35813,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>39.30138347586412</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>56.50169247908597</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36048,19 +36050,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P19" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36139,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>146.2707129942796</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36285,19 +36287,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36522,19 +36524,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14.22479737900053</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K28" t="n">
-        <v>156.1134623456949</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
-        <v>262.5223235152127</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>292.1859155964578</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>283.67553777197</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>262.1824346732062</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P28" t="n">
-        <v>207.7529699491034</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.18992909344529</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>688.3272054397147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K31" t="n">
         <v>185.6124040720329</v>
@@ -37008,7 +37010,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K34" t="n">
         <v>185.6124040720329</v>
@@ -37245,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
         <v>784.1601929209636</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>487.0539519767313</v>
       </c>
       <c r="N36" t="n">
-        <v>371.6049244215989</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37482,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.5017150698483</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>593.9528840943865</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
@@ -37719,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37795,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>265.4865815644908</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>803.202443777694</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>552.8905918835239</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.72373910533852</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K43" t="n">
-        <v>185.6124040720329</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L43" t="n">
-        <v>292.0212652415507</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M43" t="n">
-        <v>321.6848573227958</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N43" t="n">
-        <v>313.174479498308</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O43" t="n">
-        <v>291.6813763995442</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P43" t="n">
-        <v>237.2519116754414</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.68887081978329</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>224.5202727871523</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38032,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>803.202443777694</v>
+        <v>831.2996354089887</v>
       </c>
       <c r="N45" t="n">
-        <v>212.9561823683648</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2149340.062089133</v>
+        <v>2148613.463217909</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330301</v>
+        <v>5851605.615330297</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124477</v>
+        <v>864456.6793124487</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>340.9731559768329</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>73.21376214686863</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>55.04634263617496</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>37.57836269100275</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>156.8251317007255</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>98.9457413571089</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>22.26094028843003</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>96.82870659917981</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -992,7 +992,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464124</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -1037,7 +1037,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810346</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>41.24458363092484</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>169.8256452543826</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>104.2794811897301</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>345.4765430722621</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>151.0897429533497</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>65.42520756919141</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T11" t="n">
         <v>190.4854774862717</v>
@@ -1432,10 +1432,10 @@
         <v>316.8402373905461</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298454</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
-        <v>31.72622624840622</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125508</v>
@@ -1584,13 +1584,13 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>105.0358710929977</v>
       </c>
       <c r="X13" t="n">
         <v>206.4614817925754</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1624,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905467</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
         <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>73.56321609301163</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
@@ -1779,13 +1779,13 @@
         <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>174.7241074356322</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>241.6479458835352</v>
@@ -1830,7 +1830,7 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1849,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="18">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875626</v>
+        <v>114.6712979802664</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.1266969352238</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E20" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>18.54218513933539</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>44.72798741164868</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967475</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>40.15412884460862</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2535,13 +2535,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>94.67571725895766</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E26" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975966</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275013</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862723</v>
+        <v>190.4854774862719</v>
       </c>
       <c r="U26" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V26" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W26" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X26" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>33.12209635668003</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>103.1885574966858</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501644</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>250.4712242529992</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835354</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198765</v>
       </c>
       <c r="X28" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>376.6200261415066</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535253</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E29" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975966</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275013</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862719</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="30">
@@ -2952,16 +2952,16 @@
         <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>59.75024856524976</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>128.4007565039812</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501644</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U31" t="n">
-        <v>169.6246969942281</v>
+        <v>250.4712242529992</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835354</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198765</v>
       </c>
       <c r="X31" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S34" t="n">
         <v>155.0289087125508</v>
@@ -3249,13 +3249,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.28679514555843</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>139.8834969875627</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>113.7915449370782</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037913</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>71.36645932758309</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E38" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G38" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V38" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W38" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y38" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
@@ -3726,10 +3726,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>146.8860126051064</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.4220684389907</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>176.7672208485172</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>227.0672929610291</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,13 +3979,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>373.736032213064</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4030,10 +4030,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>10.28514654639037</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.0380268246975</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1301.201887339098</v>
+        <v>1371.124773552674</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.117700692773</v>
+        <v>961.0001828659437</v>
       </c>
       <c r="D2" t="n">
-        <v>1294.694174826237</v>
+        <v>556.5362529590042</v>
       </c>
       <c r="E2" t="n">
-        <v>950.2768455567091</v>
+        <v>142.1960374759009</v>
       </c>
       <c r="F2" t="n">
-        <v>529.2464335103966</v>
+        <v>125.2060294699925</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032287</v>
+        <v>120.5181494032288</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032287</v>
+        <v>120.5181494032288</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J2" t="n">
         <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>288.3518581880562</v>
+        <v>711.1608938517925</v>
       </c>
       <c r="L2" t="n">
-        <v>711.1608938517919</v>
+        <v>1133.969929515529</v>
       </c>
       <c r="M2" t="n">
-        <v>822.1446189980575</v>
+        <v>1133.969929515529</v>
       </c>
       <c r="N2" t="n">
-        <v>1244.953654661793</v>
+        <v>1346.601683530239</v>
       </c>
       <c r="O2" t="n">
-        <v>1244.953654661793</v>
+        <v>1346.601683530239</v>
       </c>
       <c r="P2" t="n">
-        <v>1667.762690325529</v>
+        <v>1346.601683530239</v>
       </c>
       <c r="Q2" t="n">
-        <v>1667.762690325529</v>
+        <v>1667.762690325531</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.319336015094</v>
+        <v>1451.258844274606</v>
       </c>
       <c r="V2" t="n">
-        <v>1708.319336015094</v>
+        <v>1451.258844274606</v>
       </c>
       <c r="W2" t="n">
-        <v>1708.319336015094</v>
+        <v>1451.258844274606</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.319336015094</v>
+        <v>1451.258844274606</v>
       </c>
       <c r="Y2" t="n">
-        <v>1307.382662963184</v>
+        <v>1377.305549176759</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>462.1049995751744</v>
+        <v>340.6609820511304</v>
       </c>
       <c r="C3" t="n">
-        <v>462.1049995751744</v>
+        <v>206.6659108000761</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751744</v>
+        <v>89.76875301946855</v>
       </c>
       <c r="E3" t="n">
-        <v>341.6121835675024</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="F3" t="n">
-        <v>232.652303750007</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643456</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="H3" t="n">
-        <v>54.9149781000617</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J3" t="n">
-        <v>226.9792442829351</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="K3" t="n">
-        <v>226.9792442829351</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="L3" t="n">
-        <v>512.8568000036389</v>
+        <v>456.9754223840382</v>
       </c>
       <c r="M3" t="n">
-        <v>935.6658356673747</v>
+        <v>879.7844580477745</v>
       </c>
       <c r="N3" t="n">
-        <v>935.6658356673747</v>
+        <v>879.7844580477745</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.474871331111</v>
+        <v>906.1063163047465</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331111</v>
+        <v>1328.915351968483</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015094</v>
+        <v>1678.759816652466</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129403</v>
+        <v>1600.329326129405</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316411</v>
+        <v>1440.987462316413</v>
       </c>
       <c r="U3" t="n">
-        <v>1243.63665145463</v>
+        <v>1243.636651454632</v>
       </c>
       <c r="V3" t="n">
-        <v>1029.925124447663</v>
+        <v>1029.925124447665</v>
       </c>
       <c r="W3" t="n">
-        <v>816.6919561839921</v>
+        <v>816.6919561839942</v>
       </c>
       <c r="X3" t="n">
-        <v>640.365974322885</v>
+        <v>640.365974322887</v>
       </c>
       <c r="Y3" t="n">
-        <v>602.408032210761</v>
+        <v>480.9640146867171</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>952.4068645831551</v>
+        <v>300.1198878105191</v>
       </c>
       <c r="C4" t="n">
-        <v>952.4068645831551</v>
+        <v>300.1198878105191</v>
       </c>
       <c r="D4" t="n">
-        <v>792.912219906065</v>
+        <v>300.1198878105191</v>
       </c>
       <c r="E4" t="n">
-        <v>632.0014047743845</v>
+        <v>300.1198878105191</v>
       </c>
       <c r="F4" t="n">
-        <v>467.3702788849757</v>
+        <v>300.1198878105191</v>
       </c>
       <c r="G4" t="n">
         <v>300.1198878105191</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159757</v>
+        <v>150.5124326159758</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J4" t="n">
-        <v>48.2489361255124</v>
+        <v>48.24893612551244</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6983641278109</v>
+        <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
         <v>751.9624205683042</v>
@@ -4515,25 +4515,25 @@
         <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.352057873164</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="U4" t="n">
-        <v>952.4068645831551</v>
+        <v>1195.494417562676</v>
       </c>
       <c r="V4" t="n">
-        <v>952.4068645831551</v>
+        <v>921.6086725021978</v>
       </c>
       <c r="W4" t="n">
-        <v>952.4068645831551</v>
+        <v>921.6086725021978</v>
       </c>
       <c r="X4" t="n">
-        <v>952.4068645831551</v>
+        <v>683.2648103618812</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.4068645831551</v>
+        <v>458.5291117506459</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1476.106720938044</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C5" t="n">
-        <v>1470.022534291718</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>1372.215759949112</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>957.8755444660092</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
         <v>536.8451324196967</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>295.9505570973564</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N5" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1846.479361096332</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>1482.28749656213</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X5" t="n">
-        <v>1482.28749656213</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y5" t="n">
-        <v>1482.28749656213</v>
+        <v>997.1688666927112</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
         <v>62.51367700936187</v>
@@ -4649,22 +4649,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4685,13 +4685,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.1175765756921</v>
+        <v>83.42628121639481</v>
       </c>
       <c r="C7" t="n">
-        <v>518.1175765756921</v>
+        <v>83.42628121639481</v>
       </c>
       <c r="D7" t="n">
-        <v>358.622931898602</v>
+        <v>83.42628121639481</v>
       </c>
       <c r="E7" t="n">
-        <v>358.622931898602</v>
+        <v>83.42628121639481</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>83.42628121639481</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>83.42628121639481</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>83.42628121639481</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5443774486778</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>689.6586323881997</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>518.1175765756921</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>518.1175765756921</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="Y7" t="n">
-        <v>518.1175765756921</v>
+        <v>271.1259876104392</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.313204991185</v>
+        <v>570.6426643811656</v>
       </c>
       <c r="C8" t="n">
-        <v>1692.229018344859</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D8" t="n">
-        <v>1287.76508843792</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.432279155364</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>761.4018671090519</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636817</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
-        <v>812.7934917636817</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.493980615271</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.493980615271</v>
+        <v>1381.800517097565</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.493980615271</v>
+        <v>980.863844045655</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N9" t="n">
-        <v>1531.257211227551</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.1111315252759</v>
+        <v>488.6991486406494</v>
       </c>
       <c r="C10" t="n">
-        <v>158.1111315252759</v>
+        <v>317.6057762023659</v>
       </c>
       <c r="D10" t="n">
         <v>158.1111315252759</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1418.548080277371</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1139.478415786246</v>
       </c>
       <c r="X10" t="n">
-        <v>158.1111315252759</v>
+        <v>901.134553645929</v>
       </c>
       <c r="Y10" t="n">
-        <v>158.1111315252759</v>
+        <v>676.3988550346937</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D11" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,19 +5068,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X11" t="n">
         <v>3092.17704518032</v>
@@ -5123,22 +5123,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>1159.714647364874</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O12" t="n">
-        <v>1198.623017005979</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>1760.328909494509</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>528.6919904623223</v>
+        <v>578.3533189548407</v>
       </c>
       <c r="C13" t="n">
-        <v>528.6919904623223</v>
+        <v>437.056857351242</v>
       </c>
       <c r="D13" t="n">
-        <v>496.645297282114</v>
+        <v>437.056857351242</v>
       </c>
       <c r="E13" t="n">
-        <v>365.5313929851184</v>
+        <v>437.056857351242</v>
       </c>
       <c r="F13" t="n">
-        <v>230.6971779303945</v>
+        <v>437.056857351242</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K13" t="n">
         <v>320.2864794362206</v>
@@ -5208,13 +5208,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V13" t="n">
-        <v>1181.450483200945</v>
+        <v>1245.838693084259</v>
       </c>
       <c r="W13" t="n">
-        <v>932.1777295445045</v>
+        <v>1139.741853596382</v>
       </c>
       <c r="X13" t="n">
-        <v>723.6307782388727</v>
+        <v>931.1949022907506</v>
       </c>
       <c r="Y13" t="n">
-        <v>528.6919904623223</v>
+        <v>736.2561145142002</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5308,13 +5308,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W14" t="n">
         <v>3463.023532176683</v>
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>549.0499539559215</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N15" t="n">
-        <v>1422.708046067539</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>626.3430311245191</v>
+        <v>649.7449648275664</v>
       </c>
       <c r="C16" t="n">
-        <v>626.3430311245191</v>
+        <v>575.4386859457364</v>
       </c>
       <c r="D16" t="n">
-        <v>496.645297282114</v>
+        <v>445.7409521033313</v>
       </c>
       <c r="E16" t="n">
-        <v>365.5313929851184</v>
+        <v>314.6270478063357</v>
       </c>
       <c r="F16" t="n">
-        <v>230.6971779303945</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K16" t="n">
         <v>320.2864794362206</v>
@@ -5445,13 +5445,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1699.679355498665</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T16" t="n">
-        <v>1523.190358088935</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.190358088935</v>
+        <v>1338.045340486351</v>
       </c>
       <c r="V16" t="n">
-        <v>1279.101523863142</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.828770206701</v>
+        <v>844.6837526041168</v>
       </c>
       <c r="X16" t="n">
-        <v>821.2818189010695</v>
+        <v>844.6837526041168</v>
       </c>
       <c r="Y16" t="n">
-        <v>626.3430311245191</v>
+        <v>649.7449648275664</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5554,13 +5554,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N18" t="n">
-        <v>2083.796217986828</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O18" t="n">
-        <v>2083.796217986828</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>578.3533189548407</v>
+        <v>338.771025452489</v>
       </c>
       <c r="C19" t="n">
-        <v>437.056857351242</v>
+        <v>222.941431533028</v>
       </c>
       <c r="D19" t="n">
-        <v>437.056857351242</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>437.056857351242</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>437.056857351242</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5676,13 +5676,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5703,22 +5703,22 @@
         <v>1856.27421278407</v>
       </c>
       <c r="T19" t="n">
-        <v>1646.522384595457</v>
+        <v>1646.522384595456</v>
       </c>
       <c r="U19" t="n">
-        <v>1393.521147976266</v>
+        <v>1393.521147976265</v>
       </c>
       <c r="V19" t="n">
-        <v>1149.432313750473</v>
+        <v>1149.432313750472</v>
       </c>
       <c r="W19" t="n">
-        <v>900.1595600940318</v>
+        <v>900.159560094031</v>
       </c>
       <c r="X19" t="n">
-        <v>691.6126087884001</v>
+        <v>691.6126087883991</v>
       </c>
       <c r="Y19" t="n">
-        <v>578.3533189548407</v>
+        <v>496.6738210118486</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5782,22 +5782,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.989961721529</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>797.7956072975439</v>
+        <v>390.723119472716</v>
       </c>
       <c r="C22" t="n">
-        <v>656.4991456939454</v>
+        <v>249.4266578691172</v>
       </c>
       <c r="D22" t="n">
-        <v>526.8014118515403</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6875075545446</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F22" t="n">
-        <v>395.6875075545446</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G22" t="n">
-        <v>258.2340273147729</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4234829549144</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5913,13 +5913,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478248</v>
@@ -5937,25 +5937,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1856.27421278407</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1856.27421278407</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U22" t="n">
-        <v>1603.272976164879</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V22" t="n">
-        <v>1359.184141939086</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W22" t="n">
-        <v>1359.184141939086</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X22" t="n">
-        <v>1150.637190633454</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="Y22" t="n">
-        <v>955.6984028569035</v>
+        <v>548.6259150320756</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D23" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F23" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G23" t="n">
         <v>430.910136076462</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6025,7 +6025,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
         <v>3463.023532176683</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>743.5647028086267</v>
+        <v>836.5456919091937</v>
       </c>
       <c r="C25" t="n">
-        <v>743.5647028086267</v>
+        <v>695.249230305595</v>
       </c>
       <c r="D25" t="n">
-        <v>703.0049767029615</v>
+        <v>565.5514964631899</v>
       </c>
       <c r="E25" t="n">
-        <v>571.8910724059658</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="F25" t="n">
-        <v>437.056857351242</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G25" t="n">
         <v>299.6033771114703</v>
@@ -6150,7 +6150,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
         <v>609.3875320253558</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U25" t="n">
-        <v>1236.926290690861</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V25" t="n">
-        <v>992.8374564650675</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="W25" t="n">
-        <v>743.5647028086267</v>
+        <v>932.1777295445045</v>
       </c>
       <c r="X25" t="n">
-        <v>743.5647028086267</v>
+        <v>836.5456919091937</v>
       </c>
       <c r="Y25" t="n">
-        <v>743.5647028086267</v>
+        <v>836.5456919091937</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388649</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159926</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.29114694147</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>338.77102545249</v>
+        <v>126.7003606771683</v>
       </c>
       <c r="C28" t="n">
-        <v>197.4745638488913</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>197.4745638488913</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>197.4745638488913</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
         <v>93.2436976906228</v>
@@ -6384,16 +6384,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.5301994049078</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N28" t="n">
         <v>1237.898275478248</v>
@@ -6405,31 +6405,31 @@
         <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="R28" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T28" t="n">
-        <v>1646.522384595457</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U28" t="n">
-        <v>1393.521147976266</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V28" t="n">
-        <v>1149.432313750473</v>
+        <v>937.3616489751512</v>
       </c>
       <c r="W28" t="n">
-        <v>900.1595600940318</v>
+        <v>688.0888953187103</v>
       </c>
       <c r="X28" t="n">
-        <v>691.6126087884001</v>
+        <v>479.5419440130785</v>
       </c>
       <c r="Y28" t="n">
-        <v>496.6738210118496</v>
+        <v>284.6031562365279</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388649</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,10 +6490,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159926</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.29114694147</v>
       </c>
       <c r="U29" t="n">
         <v>4137.027566035665</v>
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>630.1860124883461</v>
+        <v>283.2952179625732</v>
       </c>
       <c r="C31" t="n">
-        <v>488.8895508847475</v>
+        <v>222.941431533028</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1918170423423</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>228.0779127453467</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
         <v>93.2436976906228</v>
@@ -6621,16 +6621,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.5301994049078</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N31" t="n">
         <v>1237.898275478248</v>
@@ -6642,31 +6642,31 @@
         <v>1761.542230672484</v>
       </c>
       <c r="Q31" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T31" t="n">
-        <v>1856.27421278407</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U31" t="n">
-        <v>1684.936135012122</v>
+        <v>1338.045340486349</v>
       </c>
       <c r="V31" t="n">
-        <v>1440.847300786329</v>
+        <v>1093.956506260556</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.574547129888</v>
+        <v>844.6837526041153</v>
       </c>
       <c r="X31" t="n">
-        <v>983.0275958242562</v>
+        <v>636.1368012984834</v>
       </c>
       <c r="Y31" t="n">
-        <v>788.0888080477057</v>
+        <v>441.1980135219329</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D32" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6736,7 +6736,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
         <v>3463.023532176683</v>
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.431787612198</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C34" t="n">
-        <v>564.1353260085993</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>434.4375921661942</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>434.4375921661942</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6897,13 +6897,13 @@
         <v>937.361648975152</v>
       </c>
       <c r="W34" t="n">
-        <v>937.361648975152</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X34" t="n">
-        <v>937.361648975152</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y34" t="n">
-        <v>863.3345831715576</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H35" t="n">
         <v>149.7985495388648</v>
@@ -6964,10 +6964,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
         <v>4137.027566035664</v>
@@ -6976,13 +6976,13 @@
         <v>3816.986922206829</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X35" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>1236.515282066875</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>565.7279826795128</v>
+        <v>842.8852678519697</v>
       </c>
       <c r="C37" t="n">
-        <v>424.4315210759141</v>
+        <v>701.588806248371</v>
       </c>
       <c r="D37" t="n">
-        <v>294.733787233509</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="E37" t="n">
-        <v>294.733787233509</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F37" t="n">
-        <v>179.7928327516118</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G37" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H37" t="n">
         <v>179.7928327516118</v>
@@ -7101,7 +7101,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
         <v>927.8555407749236</v>
@@ -7119,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820136</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U37" t="n">
-        <v>1181.450483200945</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V37" t="n">
-        <v>1181.450483200945</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W37" t="n">
-        <v>932.1777295445041</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X37" t="n">
-        <v>723.6307782388724</v>
+        <v>1037.82405562852</v>
       </c>
       <c r="Y37" t="n">
-        <v>723.6307782388724</v>
+        <v>842.8852678519697</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7213,13 +7213,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>342.7519758928865</v>
+        <v>608.7000952446064</v>
       </c>
       <c r="C40" t="n">
-        <v>342.7519758928865</v>
+        <v>608.7000952446064</v>
       </c>
       <c r="D40" t="n">
-        <v>213.0542420504813</v>
+        <v>479.0023614022011</v>
       </c>
       <c r="E40" t="n">
-        <v>213.0542420504813</v>
+        <v>347.8884571052054</v>
       </c>
       <c r="F40" t="n">
-        <v>213.0542420504813</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="G40" t="n">
-        <v>213.0542420504813</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7335,13 +7335,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N40" t="n">
         <v>1237.898275478248</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820136</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U40" t="n">
-        <v>1181.450483200945</v>
+        <v>1603.272976164878</v>
       </c>
       <c r="V40" t="n">
-        <v>937.3616489751518</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W40" t="n">
-        <v>688.0888953187109</v>
+        <v>1109.911388282644</v>
       </c>
       <c r="X40" t="n">
-        <v>479.5419440130791</v>
+        <v>961.5416785805164</v>
       </c>
       <c r="Y40" t="n">
-        <v>342.7519758928865</v>
+        <v>766.6028908039659</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4097.330235996674</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N42" t="n">
-        <v>1615.520903630173</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O42" t="n">
-        <v>1760.328909494509</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P42" t="n">
-        <v>1760.328909494509</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>428.968196018315</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1358.817127655037</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>1358.817127655037</v>
       </c>
       <c r="U43" t="n">
-        <v>1100.295707834299</v>
+        <v>1358.817127655037</v>
       </c>
       <c r="V43" t="n">
-        <v>826.4099627738212</v>
+        <v>1358.817127655037</v>
       </c>
       <c r="W43" t="n">
-        <v>547.3402982826956</v>
+        <v>1079.747463163911</v>
       </c>
       <c r="X43" t="n">
-        <v>317.9793963018581</v>
+        <v>841.4036010235948</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.2436976906228</v>
+        <v>616.6679024123595</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E44" t="n">
         <v>1320.262653899312</v>
@@ -7678,22 +7678,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>916.2303367455215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
         <v>1789.888428857139</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.5897435862967</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="C46" t="n">
-        <v>209.5897435862967</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D46" t="n">
-        <v>209.5897435862967</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E46" t="n">
-        <v>209.5897435862967</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F46" t="n">
-        <v>209.5897435862967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7833,25 +7833,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1153.452678737507</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V46" t="n">
-        <v>879.5669336770293</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W46" t="n">
-        <v>600.4972691859036</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X46" t="n">
-        <v>362.153407045587</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.5897435862967</v>
+        <v>606.6076240083174</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>516.2162236769911</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666184</v>
+        <v>522.5652320666188</v>
       </c>
       <c r="M2" t="n">
-        <v>205.3949973320612</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603928</v>
+        <v>307.6918402664278</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846576</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>344.8797316095397</v>
+        <v>483.1943578146231</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421909</v>
+        <v>484.6441177421914</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037735</v>
+        <v>84.3392146131031</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065778</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -8233,13 +8233,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.2845869185513</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>332.1773130131622</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8309,13 +8309,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>535.0653799235644</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>501.1513772538824</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>68.45311154908681</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8701,7 +8701,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8771,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>56.49167641875563</v>
       </c>
       <c r="O12" t="n">
-        <v>97.05286247586417</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8941,7 +8941,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
@@ -9014,13 +9014,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>613.6913745331453</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1609013342966</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9029,7 +9029,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9257,16 +9257,16 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>97.05286247586417</v>
       </c>
       <c r="P18" t="n">
-        <v>110.7613274818897</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>574.6635313430244</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,25 +9956,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>544.6182357151487</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>384.4175102257753</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10916,16 +10916,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>204.0221919942796</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>888.8639191474061</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>96.67453025557484</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>141.7441550268787</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>66.320280894551</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>32.93020247109465</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>25.21219900729629</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.86270296356115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>109.8585713646458</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>40.95565629873042</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>88.24662765937244</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>111.7857645336178</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>106.7614006308827</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>128.4007565039812</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F28" t="n">
-        <v>30.29731540749081</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103792</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>80.13324842231299</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103792</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>80.84652725877098</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>106.7614006308816</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.7026047532265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>19.69432796709853</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>135.0950224649924</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>139.8834969875627</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>59.57546918746911</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.5673314597943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25797,7 +25797,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>7.760629590371622</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>8.893130557884376</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>175.5375627837136</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,16 +26034,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.45031480042547</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670290.9997784551</v>
+        <v>670290.9997784554</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>570088.3756135993</v>
+      </c>
+      <c r="C2" t="n">
         <v>570088.3756135995</v>
-      </c>
-      <c r="C2" t="n">
-        <v>570088.3756135992</v>
       </c>
       <c r="D2" t="n">
         <v>570088.3756135994</v>
       </c>
       <c r="E2" t="n">
-        <v>552473.0333231015</v>
+        <v>552473.0333231016</v>
       </c>
       <c r="F2" t="n">
-        <v>552473.0333231009</v>
+        <v>552473.0333231016</v>
       </c>
       <c r="G2" t="n">
-        <v>552473.0333231012</v>
+        <v>552473.0333231014</v>
       </c>
       <c r="H2" t="n">
-        <v>552473.0333231015</v>
+        <v>552473.0333231016</v>
       </c>
       <c r="I2" t="n">
-        <v>552473.0333231015</v>
+        <v>552473.0333231016</v>
       </c>
       <c r="J2" t="n">
         <v>552473.0333231014</v>
       </c>
       <c r="K2" t="n">
-        <v>552473.0333231009</v>
+        <v>552473.0333231014</v>
       </c>
       <c r="L2" t="n">
-        <v>552473.0333231015</v>
+        <v>552473.0333231016</v>
       </c>
       <c r="M2" t="n">
         <v>552473.0333231016</v>
       </c>
       <c r="N2" t="n">
-        <v>552473.0333231014</v>
+        <v>552473.0333231015</v>
       </c>
       <c r="O2" t="n">
-        <v>506885.1681864142</v>
+        <v>506885.1681864141</v>
       </c>
       <c r="P2" t="n">
-        <v>506885.1681864144</v>
+        <v>506885.1681864139</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108466</v>
+        <v>143124.2752108467</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.4608666882</v>
+        <v>30686.46086668804</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691537</v>
+        <v>135342.0294691538</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110956</v>
+        <v>24445.77426110943</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248795.5093150309</v>
+        <v>248795.5093150308</v>
       </c>
       <c r="C4" t="n">
         <v>232373.271303389</v>
       </c>
       <c r="D4" t="n">
-        <v>232373.271303389</v>
+        <v>232373.2713033891</v>
       </c>
       <c r="E4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
       <c r="F4" t="n">
         <v>148366.1238023682</v>
@@ -26441,10 +26441,10 @@
         <v>148366.1238023682</v>
       </c>
       <c r="J4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023681</v>
       </c>
       <c r="K4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023681</v>
       </c>
       <c r="L4" t="n">
         <v>148366.1238023682</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742942</v>
+        <v>59594.05390742946</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,10 +26478,10 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="G5" t="n">
         <v>73345.15677686482</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118574.5371802927</v>
+        <v>118574.5371802923</v>
       </c>
       <c r="C6" t="n">
-        <v>241659.5783650245</v>
+        <v>241659.5783650249</v>
       </c>
       <c r="D6" t="n">
         <v>272346.0392317128</v>
       </c>
       <c r="E6" t="n">
-        <v>115032.8364633548</v>
+        <v>114982.5069139534</v>
       </c>
       <c r="F6" t="n">
-        <v>330761.7527438678</v>
+        <v>330711.4231944671</v>
       </c>
       <c r="G6" t="n">
-        <v>330761.7527438682</v>
+        <v>330711.423194467</v>
       </c>
       <c r="H6" t="n">
-        <v>330761.7527438684</v>
+        <v>330711.4231944671</v>
       </c>
       <c r="I6" t="n">
-        <v>330761.7527438684</v>
+        <v>330711.4231944671</v>
       </c>
       <c r="J6" t="n">
-        <v>195419.7232747147</v>
+        <v>195369.3937253131</v>
       </c>
       <c r="K6" t="n">
-        <v>306315.9784827583</v>
+        <v>306265.6489333576</v>
       </c>
       <c r="L6" t="n">
-        <v>330761.7527438684</v>
+        <v>330711.4231944671</v>
       </c>
       <c r="M6" t="n">
-        <v>170403.3022431859</v>
+        <v>170352.9726937844</v>
       </c>
       <c r="N6" t="n">
-        <v>330761.7527438683</v>
+        <v>330711.423194467</v>
       </c>
       <c r="O6" t="n">
-        <v>317463.8635560416</v>
+        <v>317283.2829633923</v>
       </c>
       <c r="P6" t="n">
-        <v>317463.8635560418</v>
+        <v>317283.2829633922</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.079834003774</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.079834003774</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625156</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625156</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.079834003774</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625156</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>69.22365735143939</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27435,7 +27435,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>323.7135441745222</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64.24154521142033</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>120.2295773488055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>28.99757762937841</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>181.0244246222282</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>383.8580275794145</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>303.5905840086903</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27788,13 +27788,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>73.93800180579227</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>106.4533225918317</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>305.9173321385421</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27915,13 +27915,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>51.16042078047491</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>120.0571446565235</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>170.535215949722</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633745</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633791</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="41">
@@ -34701,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>427.079834003774</v>
       </c>
       <c r="L2" t="n">
-        <v>427.0798340037735</v>
+        <v>427.079834003774</v>
       </c>
       <c r="M2" t="n">
-        <v>112.1047728750157</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037735</v>
+        <v>214.7795495098085</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037735</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7652077986907</v>
+        <v>427.079834003774</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037735</v>
+        <v>427.079834003774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037735</v>
+        <v>26.5877356131031</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.079834003774</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>276.3515302285468</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>445.0368534430334</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>10.70163254908682</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35421,7 +35421,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35491,25 +35491,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>3.298283025005639</v>
       </c>
       <c r="O12" t="n">
-        <v>39.30138347586418</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35576,19 +35576,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
@@ -35734,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="O15" t="n">
-        <v>694.4094223342966</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35813,19 +35813,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>39.30138347586418</v>
       </c>
       <c r="P18" t="n">
-        <v>56.50169247908597</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M22" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533844</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720329</v>
+        <v>185.6124040720328</v>
       </c>
       <c r="L28" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M28" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978319</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533844</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.6124040720328</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M31" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K34" t="n">
         <v>185.6124040720329</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>487.0539519767313</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37484,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>328.3029864149263</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L40" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M40" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N40" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P40" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>146.2707129942796</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>831.2996354089887</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
